--- a/工作文档/06 小组日报/项目日报-32组-幸运房东.xlsx
+++ b/工作文档/06 小组日报/项目日报-32组-幸运房东.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LuckyHost\工作文档\06 小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F43FF9E-F072-46D8-8F21-3AFBFE4B29CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D9A955-3C15-459D-BD6E-F958FBF953D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021.12.13" sheetId="22" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="2021.12.17" sheetId="24" r:id="rId5"/>
     <sheet name="2021.12.18" sheetId="25" r:id="rId6"/>
     <sheet name="2021.12.19" sheetId="26" r:id="rId7"/>
+    <sheet name="2021.12.20" sheetId="27" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -269,11 +270,31 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>50%，完成了主游戏的显示</t>
+    <t>游戏界面中的各个按钮功能出错</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>游戏界面中的各个按钮功能出错</t>
+    <t>70%，完成了物品显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能实现</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%，完成了随机存读取物品机制</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>90%，完成特殊物品的显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     姓名： 王旻安、吴思赣  日期： 2021.12.20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">40%， </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,13 +668,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,7 +689,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,25 +713,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1782,6 +1809,159 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>548640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="fc058e30fe58b87498288be5326758b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452AD3D0-E7F0-4E33-B66B-E7212AB7E8F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="236220" y="60960"/>
+          <a:ext cx="1691640" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2316480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>541020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="a351669fb33a7b849f43b5c50f2409c">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66469FAE-E079-40C0-AC12-E57EE6B2EC56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="30480"/>
+          <a:ext cx="1021080" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2102,37 +2282,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2140,10 +2320,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
@@ -2159,13 +2339,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="24" t="s">
         <v>38</v>
       </c>
@@ -2179,9 +2359,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="26" t="s">
         <v>40</v>
       </c>
@@ -2195,9 +2375,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="24" t="s">
         <v>41</v>
       </c>
@@ -2211,9 +2391,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="18"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -2221,9 +2401,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -2231,9 +2411,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -2241,9 +2421,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -2251,9 +2431,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -2261,9 +2441,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -2274,10 +2454,10 @@
       <c r="B14" s="23">
         <v>2</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2288,10 +2468,10 @@
       <c r="B15" s="23">
         <v>2</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2299,14 +2479,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2314,15 +2494,15 @@
       <c r="B17" s="23">
         <v>1</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="35" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2330,11 +2510,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -3902,12 +4082,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:D13"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="C14:D14"/>
@@ -3915,6 +4089,12 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:D13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
@@ -3953,18 +4133,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="44"/>
@@ -3976,14 +4156,14 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3991,10 +4171,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -4008,13 +4188,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
@@ -4028,9 +4208,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4044,9 +4224,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="24" t="s">
         <v>31</v>
       </c>
@@ -4060,9 +4240,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
@@ -4076,9 +4256,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="18" t="s">
         <v>17</v>
       </c>
@@ -4092,9 +4272,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="18" t="s">
         <v>18</v>
       </c>
@@ -4108,9 +4288,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="24"/>
       <c r="F11" s="12"/>
       <c r="G11" s="25"/>
@@ -4118,9 +4298,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="26"/>
       <c r="F12" s="12"/>
       <c r="G12" s="25"/>
@@ -4128,9 +4308,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="24"/>
       <c r="F13" s="12"/>
       <c r="G13" s="25"/>
@@ -4138,9 +4318,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
       <c r="G14" s="14"/>
@@ -4151,10 +4331,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4165,10 +4345,10 @@
       <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -4176,14 +4356,14 @@
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4191,15 +4371,15 @@
       <c r="B18" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="35" t="s">
+      <c r="D18" s="36"/>
+      <c r="E18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4207,15 +4387,15 @@
       <c r="B19" s="15">
         <v>2</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="43" t="s">
+      <c r="D19" s="39"/>
+      <c r="E19" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -5783,6 +5963,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -5790,12 +5976,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -5815,7 +5995,7 @@
   <dimension ref="A1:IU500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5835,18 +6015,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="32" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="44"/>
@@ -5858,14 +6038,14 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5873,10 +6053,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5890,13 +6070,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
@@ -5910,9 +6090,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -5926,9 +6106,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="24" t="s">
         <v>31</v>
       </c>
@@ -5942,9 +6122,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
@@ -5958,9 +6138,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="18" t="s">
         <v>18</v>
       </c>
@@ -5974,9 +6154,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -5984,9 +6164,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -5994,9 +6174,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -6004,9 +6184,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -6017,10 +6197,10 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="24" t="s">
         <v>20</v>
       </c>
@@ -6037,10 +6217,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -6048,14 +6228,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6063,15 +6243,15 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="35" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6079,11 +6259,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -7651,6 +7831,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -7658,12 +7844,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -7702,37 +7882,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7740,10 +7920,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -7759,13 +7939,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
@@ -7779,9 +7959,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="24" t="s">
         <v>31</v>
       </c>
@@ -7795,9 +7975,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="18" t="s">
         <v>17</v>
       </c>
@@ -7811,9 +7991,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="18" t="s">
         <v>18</v>
       </c>
@@ -7827,9 +8007,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -7837,9 +8017,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -7847,9 +8027,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -7857,9 +8037,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -7867,9 +8047,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -7880,10 +8060,10 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -7894,10 +8074,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7905,14 +8085,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7920,15 +8100,15 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="35" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7936,11 +8116,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -9508,6 +9688,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -9515,12 +9701,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -9558,37 +9738,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9596,10 +9776,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
@@ -9615,13 +9795,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="24" t="s">
         <v>31</v>
       </c>
@@ -9635,9 +9815,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="24" t="s">
         <v>52</v>
       </c>
@@ -9651,9 +9831,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="24" t="s">
         <v>53</v>
       </c>
@@ -9667,9 +9847,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="24" t="s">
         <v>56</v>
       </c>
@@ -9683,9 +9863,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -9693,9 +9873,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -9703,9 +9883,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -9713,9 +9893,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -9723,9 +9903,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -9736,10 +9916,10 @@
       <c r="B14" s="21">
         <v>2</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -9750,10 +9930,10 @@
       <c r="B15" s="21">
         <v>2</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -9761,14 +9941,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9776,15 +9956,15 @@
       <c r="B17" s="21">
         <v>1</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="35" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9792,11 +9972,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -11395,7 +11575,7 @@
   <dimension ref="A1:IU500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:G17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11415,37 +11595,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11453,10 +11633,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -11472,13 +11652,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -11492,9 +11672,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="24"/>
       <c r="F6" s="12"/>
       <c r="G6" s="25"/>
@@ -11502,9 +11682,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -11512,9 +11692,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -11522,9 +11702,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -11532,9 +11712,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -11542,9 +11722,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -11552,9 +11732,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -11562,9 +11742,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -11575,10 +11755,10 @@
       <c r="B14" s="28">
         <v>2</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -11589,10 +11769,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -11600,14 +11780,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11615,15 +11795,15 @@
       <c r="B17" s="28">
         <v>1</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="35" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11631,11 +11811,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -13203,11 +13383,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
@@ -13216,6 +13391,11 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
@@ -13232,8 +13412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8160A615-9CDA-43B7-A90B-D97604D2B68F}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -13253,37 +13433,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13291,10 +13471,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -13310,13 +13490,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -13324,25 +13504,31 @@
         <v>13</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="25"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -13350,9 +13536,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -13360,9 +13546,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -13370,9 +13556,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -13380,9 +13566,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -13390,9 +13576,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -13400,9 +13586,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -13413,10 +13599,10 @@
       <c r="B14" s="28">
         <v>2</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -13427,10 +13613,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -13438,14 +13624,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13453,15 +13639,15 @@
       <c r="B17" s="28">
         <v>1</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13469,11 +13655,1855 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F65535 F3:F15" xr:uid="{90B86C48-2C86-4862-A417-0523499FA491}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F725E2-3B01-4DD8-90D7-D5C1DE3AEBE4}">
+  <dimension ref="A1:IU500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="37">
+        <v>1</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="30">
+        <v>2</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="30">
+        <v>2</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="30">
+        <v>1</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -15057,11 +17087,12 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F65535 F3:F15" xr:uid="{90B86C48-2C86-4862-A417-0523499FA491}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F65535 F3:F15" xr:uid="{B73BD8E3-A843-499D-BE44-789A7D438756}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/工作文档/06 小组日报/项目日报-32组-幸运房东.xlsx
+++ b/工作文档/06 小组日报/项目日报-32组-幸运房东.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LuckyHost\工作文档\06 小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D9A955-3C15-459D-BD6E-F958FBF953D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC00B6F1-0A65-4DF0-8E87-EA07D6DEEB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021.12.13" sheetId="22" r:id="rId1"/>
-    <sheet name="2021.12.14" sheetId="19" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="29" r:id="rId2"/>
     <sheet name="2021.12.15" sheetId="20" r:id="rId3"/>
-    <sheet name="2021.12.16" sheetId="21" r:id="rId4"/>
-    <sheet name="2021.12.17" sheetId="24" r:id="rId5"/>
-    <sheet name="2021.12.18" sheetId="25" r:id="rId6"/>
-    <sheet name="2021.12.19" sheetId="26" r:id="rId7"/>
-    <sheet name="2021.12.20" sheetId="27" r:id="rId8"/>
+    <sheet name="2021.12.14" sheetId="19" r:id="rId4"/>
+    <sheet name="2021.12.16" sheetId="21" r:id="rId5"/>
+    <sheet name="2021.12.17" sheetId="24" r:id="rId6"/>
+    <sheet name="2021.12.18" sheetId="25" r:id="rId7"/>
+    <sheet name="2021.12.19" sheetId="26" r:id="rId8"/>
+    <sheet name="2021.12.20" sheetId="27" r:id="rId9"/>
+    <sheet name="2021.12.21" sheetId="28" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="72">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -274,10 +276,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>70%，完成了物品显示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>功能实现</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -286,15 +284,23 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>90%，完成特殊物品的显示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">     姓名： 王旻安、吴思赣  日期： 2021.12.20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">40%， </t>
+    <t>40%， 完成了金币计算功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%，完成了物品显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>70%，完成特殊物品的显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>70%， 完成了特殊物品的金币加成计算</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,13 +680,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,19 +701,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,13 +713,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,6 +915,149 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1630680" cy="495300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="fc058e30fe58b87498288be5326758b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE559B9-4E16-4B3F-BD47-FA796DE5D6BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="236220" y="60960"/>
+          <a:ext cx="1630680" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="990600" cy="525780"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="a351669fb33a7b849f43b5c50f2409c">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F20884E-949A-4B74-BD8C-971A24CE2E12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="30480"/>
+          <a:ext cx="990600" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1051,149 +1206,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1630680" cy="495300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="fc058e30fe58b87498288be5326758b">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE559B9-4E16-4B3F-BD47-FA796DE5D6BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="236220" y="60960"/>
-          <a:ext cx="1630680" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="990600" cy="525780"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="a351669fb33a7b849f43b5c50f2409c">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F20884E-949A-4B74-BD8C-971A24CE2E12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6972300" y="30480"/>
-          <a:ext cx="990600" cy="525780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1962,6 +1974,159 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>541020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="fc058e30fe58b87498288be5326758b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9065F4BC-AAF7-4E83-8CB5-59DA4C95A825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="236220" y="60960"/>
+          <a:ext cx="1722120" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2331720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>525780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="a351669fb33a7b849f43b5c50f2409c">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DFE6AC5-0483-46E5-8913-80F06CD407C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="30480"/>
+          <a:ext cx="1036320" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2282,37 +2447,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2320,10 +2485,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
@@ -2339,13 +2504,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="37">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="24" t="s">
         <v>38</v>
       </c>
@@ -2359,9 +2524,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="26" t="s">
         <v>40</v>
       </c>
@@ -2375,9 +2540,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="24" t="s">
         <v>41</v>
       </c>
@@ -2391,9 +2556,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="18"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -2401,9 +2566,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -2411,9 +2576,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -2421,9 +2586,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -2431,9 +2596,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -2441,9 +2606,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -2454,10 +2619,10 @@
       <c r="B14" s="23">
         <v>2</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2468,10 +2633,10 @@
       <c r="B15" s="23">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2479,14 +2644,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2497,12 +2662,12 @@
       <c r="C17" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="41" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2510,11 +2675,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4082,6 +4247,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:D13"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="C14:D14"/>
@@ -4089,12 +4260,6 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:D13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
@@ -4108,12 +4273,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IU501"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93BB922-40C0-487E-92EC-76D278878535}">
+  <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4132,20 +4297,20 @@
     <col min="256" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32" t="s">
-        <v>35</v>
+      <c r="B2" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -4156,14 +4321,14 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4171,240 +4336,207 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="37">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="18" t="s">
-        <v>11</v>
+      <c r="C5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>24</v>
+      <c r="G5" s="25">
+        <v>0.9</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>26</v>
-      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0.5</v>
-      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="13"/>
+      <c r="B14" s="32">
+        <v>2</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="11">
+      <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="11">
+      <c r="B16" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="32">
+        <v>1</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11">
-        <v>1</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="15">
-        <v>2</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="10"/>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
@@ -5678,8 +5810,10 @@
     <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="C444" s="3"/>
     </row>
-    <row r="445" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
-      <c r="C445" s="3"/>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
     </row>
     <row r="446" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E446" s="1"/>
@@ -5956,37 +6090,43 @@
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
     </row>
-    <row r="501" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E501" s="1"/>
-      <c r="F501" s="1"/>
-      <c r="G501" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:D13"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F16 F18:F65536 F1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F65535 F3:F15" xr:uid="{4B5E860E-9828-49F2-8CC8-E9F9E304775B}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB51F12-4D47-4083-993F-3020220A3716}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6015,37 +6155,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6053,10 +6193,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -6070,13 +6210,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="37">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
@@ -6090,9 +6230,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -6106,9 +6246,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="24" t="s">
         <v>31</v>
       </c>
@@ -6122,9 +6262,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
@@ -6138,9 +6278,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="18" t="s">
         <v>18</v>
       </c>
@@ -6154,9 +6294,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -6164,9 +6304,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -6174,9 +6314,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -6184,9 +6324,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -6197,10 +6337,10 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="24" t="s">
         <v>20</v>
       </c>
@@ -6217,10 +6357,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -6228,14 +6368,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6246,12 +6386,12 @@
       <c r="C17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="41" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6259,11 +6399,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -7831,12 +7971,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -7844,6 +7978,12 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -7858,6 +7998,1888 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IU501"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="45">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="15">
+        <v>2</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C445" s="3"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+    <row r="501" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E501" s="1"/>
+      <c r="F501" s="1"/>
+      <c r="G501" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F16 F18:F65536 F1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
@@ -7882,37 +9904,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7920,10 +9942,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -7939,13 +9961,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="37">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
@@ -7959,9 +9981,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="24" t="s">
         <v>31</v>
       </c>
@@ -7975,9 +9997,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="18" t="s">
         <v>17</v>
       </c>
@@ -7991,9 +10013,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="18" t="s">
         <v>18</v>
       </c>
@@ -8007,9 +10029,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -8017,9 +10039,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -8027,9 +10049,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -8037,9 +10059,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -8047,9 +10069,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -8060,10 +10082,10 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -8074,10 +10096,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -8085,14 +10107,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8103,12 +10125,12 @@
       <c r="C17" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="41" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8116,11 +10138,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -9688,12 +11710,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -9701,6 +11717,12 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -9713,11 +11735,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A801971-D917-41A7-9011-FC9B479D7BB9}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
@@ -9738,37 +11760,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9776,10 +11798,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
@@ -9795,13 +11817,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="37">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="24" t="s">
         <v>31</v>
       </c>
@@ -9815,9 +11837,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="24" t="s">
         <v>52</v>
       </c>
@@ -9831,9 +11853,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="24" t="s">
         <v>53</v>
       </c>
@@ -9847,9 +11869,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="24" t="s">
         <v>56</v>
       </c>
@@ -9863,9 +11885,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -9873,9 +11895,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -9883,9 +11905,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -9893,9 +11915,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -9903,9 +11925,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -9916,10 +11938,10 @@
       <c r="B14" s="21">
         <v>2</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -9930,10 +11952,10 @@
       <c r="B15" s="21">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -9941,14 +11963,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9959,12 +11981,12 @@
       <c r="C17" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="41" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9972,11 +11994,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -11570,7 +13592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CF68EF-EA36-4DB3-A169-D6C9176D79C8}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
@@ -11595,37 +13617,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11633,10 +13655,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -11652,13 +13674,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="37">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -11672,9 +13694,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="24"/>
       <c r="F6" s="12"/>
       <c r="G6" s="25"/>
@@ -11682,9 +13704,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -11692,9 +13714,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -11702,9 +13724,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -11712,9 +13734,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -11722,9 +13744,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -11732,9 +13754,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -11742,9 +13764,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -11755,10 +13777,10 @@
       <c r="B14" s="28">
         <v>2</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -11769,10 +13791,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -11780,14 +13802,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11798,12 +13820,12 @@
       <c r="C17" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="41" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11811,11 +13833,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -13408,12 +15430,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8160A615-9CDA-43B7-A90B-D97604D2B68F}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -13433,37 +15455,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13471,10 +15493,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -13490,13 +15512,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="37">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -13504,31 +15526,31 @@
         <v>13</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -13536,9 +15558,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -13546,9 +15568,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -13556,9 +15578,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -13566,9 +15588,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -13576,9 +15598,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -13586,9 +15608,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -13599,10 +15621,10 @@
       <c r="B14" s="28">
         <v>2</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -13613,10 +15635,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -13624,14 +15646,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13642,12 +15664,12 @@
       <c r="C17" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="41" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13655,11 +15677,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -15252,12 +17274,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F725E2-3B01-4DD8-90D7-D5C1DE3AEBE4}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -15277,37 +17299,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15315,10 +17337,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
@@ -15334,13 +17356,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="37">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -15348,31 +17370,31 @@
         <v>13</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -15380,9 +17402,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -15390,9 +17412,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -15400,9 +17422,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -15410,9 +17432,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -15420,9 +17442,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -15430,9 +17452,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -15443,10 +17465,10 @@
       <c r="B14" s="30">
         <v>2</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -15457,10 +17479,10 @@
       <c r="B15" s="30">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -15468,14 +17490,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15486,12 +17508,12 @@
       <c r="C17" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="41" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15499,11 +17521,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -17071,11 +19093,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
@@ -17084,6 +19101,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">

--- a/工作文档/06 小组日报/项目日报-32组-幸运房东.xlsx
+++ b/工作文档/06 小组日报/项目日报-32组-幸运房东.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LuckyHost\工作文档\06 小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED265FD-7A07-47D5-A09C-0703AA4C569A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F041A5F6-0A1C-4C3C-B116-651E0BD8C5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021.12.13" sheetId="22" r:id="rId1"/>
@@ -25,13 +25,15 @@
     <sheet name="2021.12.21" sheetId="28" r:id="rId10"/>
     <sheet name="2021.12.22" sheetId="30" r:id="rId11"/>
     <sheet name="2021.12.23" sheetId="31" r:id="rId12"/>
+    <sheet name="2021.12.24" sheetId="32" r:id="rId13"/>
+    <sheet name="2021.12.25" sheetId="33" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="82">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -318,15 +320,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>30%，进行了软件界面是否正常显示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>漏洞修复</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>30%，修复了部分漏洞</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>60%，修复了部分漏洞</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%，进行了软件界面是否正常显示的测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>60%，进行了金币计算是否正常的测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，完成了所有功能的测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，修复了已发现的漏洞</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,13 +736,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,19 +757,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,6 +769,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -764,15 +797,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1193,6 +1217,312 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D829BF57-54F6-4D6D-BD18-F5257161B2CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="30480"/>
+          <a:ext cx="1066800" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>556260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="fc058e30fe58b87498288be5326758b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6411C282-C3E7-47BF-ABA6-5FB0F2BE8D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="228600" y="38100"/>
+          <a:ext cx="1813560" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2377440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="a351669fb33a7b849f43b5c50f2409c">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1424823-21EF-4C96-92AE-BEB5093B2362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="30480"/>
+          <a:ext cx="1082040" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="fc058e30fe58b87498288be5326758b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022B8CF2-0C23-4C07-8FDF-C817491E2288}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="228600" y="38100"/>
+          <a:ext cx="1783080" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2377440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="a351669fb33a7b849f43b5c50f2409c">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD1449B-6277-4D3D-A13F-61F280B4CFD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2785,37 +3115,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2823,10 +3153,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
@@ -2842,13 +3172,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>38</v>
       </c>
@@ -2862,9 +3192,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="26" t="s">
         <v>40</v>
       </c>
@@ -2878,9 +3208,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24" t="s">
         <v>41</v>
       </c>
@@ -2894,9 +3224,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="18"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -2904,9 +3234,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -2914,9 +3244,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -2924,9 +3254,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -2934,9 +3264,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -2944,9 +3274,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -2957,10 +3287,10 @@
       <c r="B14" s="23">
         <v>2</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2971,10 +3301,10 @@
       <c r="B15" s="23">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2982,14 +3312,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3000,12 +3330,12 @@
       <c r="C17" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="45" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3013,11 +3343,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4585,6 +4915,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:D13"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="C14:D14"/>
@@ -4592,12 +4928,6 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:D13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
@@ -4636,37 +4966,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4674,10 +5004,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
@@ -4693,13 +5023,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -4713,9 +5043,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>65</v>
       </c>
@@ -4729,9 +5059,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -4739,9 +5069,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -4749,9 +5079,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -4759,9 +5089,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -4769,9 +5099,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -4779,9 +5109,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -4789,9 +5119,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -4802,10 +5132,10 @@
       <c r="B14" s="32">
         <v>2</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -4816,10 +5146,10 @@
       <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4827,14 +5157,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4843,10 +5173,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4854,11 +5184,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -6455,7 +6785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616FBD9E-D69D-4F8E-A464-7B0CF8FFF7C0}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -6476,37 +6806,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6514,10 +6844,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
@@ -6533,13 +6863,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -6553,9 +6883,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>65</v>
       </c>
@@ -6569,9 +6899,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -6579,9 +6909,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -6589,9 +6919,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -6599,9 +6929,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -6609,9 +6939,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -6619,9 +6949,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -6629,9 +6959,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -6642,10 +6972,10 @@
       <c r="B14" s="34">
         <v>2</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -6656,10 +6986,10 @@
       <c r="B15" s="34">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -6667,14 +6997,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6683,10 +7013,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6694,11 +7024,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -8266,11 +8596,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
@@ -8279,6 +8604,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
@@ -8295,8 +8625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFF3804-3485-469B-82A3-705992C9FEA2}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -8316,37 +8646,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8354,10 +8684,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
@@ -8373,13 +8703,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>74</v>
       </c>
@@ -8387,31 +8717,31 @@
         <v>13</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -8419,9 +8749,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -8429,9 +8759,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -8439,9 +8769,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -8449,9 +8779,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -8459,9 +8789,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -8469,9 +8799,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -8482,10 +8812,10 @@
       <c r="B14" s="34">
         <v>2</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -8496,10 +8826,10 @@
       <c r="B15" s="34">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -8507,14 +8837,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8523,10 +8853,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8534,11 +8864,1851 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F65535 F3:F15" xr:uid="{78C41244-BB6C-40AC-A7CB-702A608AA459}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC6BD7D-41FF-47C9-A198-B1BCF1780B6F}">
+  <dimension ref="A1:IU500"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="49">
+        <v>1</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="36">
+        <v>2</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="36">
+        <v>2</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="36">
+        <v>1</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -10120,9 +12290,1850 @@
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F65535 F3:F15" xr:uid="{78C41244-BB6C-40AC-A7CB-702A608AA459}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F65535 F3:F15" xr:uid="{D2B51B65-B804-45BB-82D6-0C7BB1629D00}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A0554C-75D7-446A-8ECB-CF86325B3F26}">
+  <dimension ref="A1:IU500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="49">
+        <v>1</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="36">
+        <v>2</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="36">
+        <v>2</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="36">
+        <v>1</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F17:F65535 F3:F15" xr:uid="{9D4F6667-93FC-4548-BAA4-78D8AEF745FC}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10169,37 +14180,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10207,10 +14218,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -10224,13 +14235,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
@@ -10244,9 +14255,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -10260,9 +14271,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24" t="s">
         <v>31</v>
       </c>
@@ -10276,9 +14287,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
@@ -10292,9 +14303,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="18" t="s">
         <v>17</v>
       </c>
@@ -10308,9 +14319,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="18" t="s">
         <v>18</v>
       </c>
@@ -10324,9 +14335,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="24"/>
       <c r="F11" s="12"/>
       <c r="G11" s="25"/>
@@ -10334,9 +14345,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="26"/>
       <c r="F12" s="12"/>
       <c r="G12" s="25"/>
@@ -10344,9 +14355,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="24"/>
       <c r="F13" s="12"/>
       <c r="G13" s="25"/>
@@ -10354,9 +14365,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
       <c r="G14" s="14"/>
@@ -10367,10 +14378,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -10381,10 +14392,10 @@
       <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -10392,14 +14403,14 @@
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10410,12 +14421,12 @@
       <c r="C18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="45" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10423,15 +14434,15 @@
       <c r="B19" s="15">
         <v>2</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="53" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -11999,12 +16010,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -12012,6 +16017,12 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -12051,37 +16062,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12089,10 +16100,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -12106,13 +16117,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
@@ -12126,9 +16137,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -12142,9 +16153,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24" t="s">
         <v>31</v>
       </c>
@@ -12158,9 +16169,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
@@ -12174,9 +16185,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="18" t="s">
         <v>18</v>
       </c>
@@ -12190,9 +16201,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -12200,9 +16211,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -12210,9 +16221,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -12220,9 +16231,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -12233,10 +16244,10 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="24" t="s">
         <v>20</v>
       </c>
@@ -12253,10 +16264,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -12264,14 +16275,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12282,12 +16293,12 @@
       <c r="C17" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="45" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12295,11 +16306,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -13867,12 +17878,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -13880,6 +17885,12 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -13918,37 +17929,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13956,10 +17967,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -13975,13 +17986,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
@@ -13995,9 +18006,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>31</v>
       </c>
@@ -14011,9 +18022,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="18" t="s">
         <v>17</v>
       </c>
@@ -14027,9 +18038,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="18" t="s">
         <v>18</v>
       </c>
@@ -14043,9 +18054,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -14053,9 +18064,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -14063,9 +18074,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -14073,9 +18084,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -14083,9 +18094,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -14096,10 +18107,10 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -14110,10 +18121,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -14121,14 +18132,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14139,12 +18150,12 @@
       <c r="C17" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="45" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14152,11 +18163,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -15724,12 +19735,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -15737,6 +19742,12 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -15774,37 +19785,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15812,10 +19823,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
@@ -15831,13 +19842,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>31</v>
       </c>
@@ -15851,9 +19862,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>52</v>
       </c>
@@ -15867,9 +19878,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24" t="s">
         <v>53</v>
       </c>
@@ -15883,9 +19894,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24" t="s">
         <v>56</v>
       </c>
@@ -15899,9 +19910,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -15909,9 +19920,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -15919,9 +19930,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -15929,9 +19940,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -15939,9 +19950,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -15952,10 +19963,10 @@
       <c r="B14" s="21">
         <v>2</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -15966,10 +19977,10 @@
       <c r="B15" s="21">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -15977,14 +19988,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15995,12 +20006,12 @@
       <c r="C17" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="45" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16008,11 +20019,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -17631,37 +21642,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17669,10 +21680,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -17688,13 +21699,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -17708,9 +21719,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24"/>
       <c r="F6" s="12"/>
       <c r="G6" s="25"/>
@@ -17718,9 +21729,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -17728,9 +21739,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -17738,9 +21749,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -17748,9 +21759,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -17758,9 +21769,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -17768,9 +21779,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -17778,9 +21789,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -17791,10 +21802,10 @@
       <c r="B14" s="28">
         <v>2</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -17805,10 +21816,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -17816,14 +21827,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17834,12 +21845,12 @@
       <c r="C17" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="45" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17847,11 +21858,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -19469,37 +23480,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19507,10 +23518,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -19526,13 +23537,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -19546,9 +23557,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>65</v>
       </c>
@@ -19562,9 +23573,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -19572,9 +23583,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -19582,9 +23593,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -19592,9 +23603,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -19602,9 +23613,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -19612,9 +23623,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -19622,9 +23633,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -19635,10 +23646,10 @@
       <c r="B14" s="28">
         <v>2</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -19649,10 +23660,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -19660,14 +23671,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19678,12 +23689,12 @@
       <c r="C17" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="45" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19691,11 +23702,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -21313,37 +25324,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21351,10 +25362,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
@@ -21370,13 +25381,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -21390,9 +25401,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>65</v>
       </c>
@@ -21406,9 +25417,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -21416,9 +25427,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -21426,9 +25437,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -21436,9 +25447,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -21446,9 +25457,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -21456,9 +25467,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -21466,9 +25477,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -21479,10 +25490,10 @@
       <c r="B14" s="30">
         <v>2</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -21493,10 +25504,10 @@
       <c r="B15" s="30">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -21504,14 +25515,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21520,10 +25531,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21531,11 +25542,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">

--- a/工作文档/06 小组日报/项目日报-32组-幸运房东.xlsx
+++ b/工作文档/06 小组日报/项目日报-32组-幸运房东.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LuckyHost\工作文档\06 小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F041A5F6-0A1C-4C3C-B116-651E0BD8C5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4602287F-51B3-443D-BD87-8CFD227E3454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021.12.13" sheetId="22" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="97">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>20%，完成了随机存读取物品机制</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">     姓名： 王旻安、吴思赣  日期： 2021.12.20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -297,14 +293,6 @@
   </si>
   <si>
     <t>70%，完成特殊物品的显示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>70%， 完成了特殊物品的金币加成计算</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>40%， 完成了普通物品金币计算功能</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -324,27 +312,98 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>30%，修复了部分漏洞</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>60%，修复了部分漏洞</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>30%，进行了软件界面是否正常显示的测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>60%，进行了金币计算是否正常的测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>100%，完成了所有功能的测试</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>100%，修复了已发现的漏洞</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品存读取功能实现</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，完成了随机存读取物品机制</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币计算功能实现</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%， 完成了普通物品金币计算功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏面板显示内容测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，进行了软件界面是否正常显示的测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容无法正常显示漏洞修复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，修复了内容无法正常显示的漏洞</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币计算测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，进行了金币计算是否正常的测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品不正常复制漏洞修复</t>
+  </si>
+  <si>
+    <t>物品无法正常消除漏洞修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，修复了该漏洞</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊物品加成功能实现</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%， 完成了特殊物品的金币加成计算</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细金币获得显示功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，完成了详细显示获得的金币功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，测试了自动保存功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动存档功能测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动存档漏洞修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮功能漏洞修复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，修复了按钮功能的漏洞</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4945,8 +5004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93BB922-40C0-487E-92EC-76D278878535}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4978,7 +5037,7 @@
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -5047,13 +5106,13 @@
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>13</v>
+        <v>88</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -5062,9 +5121,15 @@
       <c r="B7" s="49"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="24"/>
+      <c r="E7" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -6785,8 +6850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616FBD9E-D69D-4F8E-A464-7B0CF8FFF7C0}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6818,7 +6883,7 @@
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -6877,7 +6942,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -6893,7 +6958,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -8626,7 +8691,7 @@
   <dimension ref="A1:IU500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -8658,7 +8723,7 @@
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -8711,13 +8776,13 @@
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -8727,13 +8792,13 @@
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -10466,7 +10531,7 @@
   <dimension ref="A1:IU500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10498,7 +10563,7 @@
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -10551,13 +10616,13 @@
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -10567,13 +10632,13 @@
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -10582,9 +10647,15 @@
       <c r="B7" s="49"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="24"/>
+      <c r="E7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -10592,9 +10663,15 @@
       <c r="B8" s="49"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="25"/>
+      <c r="E8" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>87</v>
+      </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -10602,9 +10679,15 @@
       <c r="B9" s="49"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14"/>
+      <c r="E9" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>87</v>
+      </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -10612,9 +10695,9 @@
       <c r="B10" s="49"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -12276,11 +12359,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
@@ -12289,6 +12367,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -12339,7 +12422,7 @@
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -12392,13 +12475,13 @@
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -12408,13 +12491,13 @@
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -14117,11 +14200,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
@@ -14130,6 +14208,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -16041,7 +16124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16:G17"/>
     </sheetView>
   </sheetViews>
@@ -17908,7 +17991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17:G17"/>
     </sheetView>
   </sheetViews>
@@ -19764,7 +19847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A801971-D917-41A7-9011-FC9B479D7BB9}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17:G17"/>
     </sheetView>
   </sheetViews>
@@ -21621,7 +21704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CF68EF-EA36-4DB3-A169-D6C9176D79C8}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17:G17"/>
     </sheetView>
   </sheetViews>
@@ -23460,7 +23543,7 @@
   <dimension ref="A1:IU500"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:G17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -23551,7 +23634,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -23561,13 +23644,13 @@
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -25295,7 +25378,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25303,8 +25387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F725E2-3B01-4DD8-90D7-D5C1DE3AEBE4}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -25336,7 +25420,7 @@
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -25395,7 +25479,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -25405,13 +25489,13 @@
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -25420,9 +25504,15 @@
       <c r="B7" s="49"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="24"/>
+      <c r="E7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作文档/06 小组日报/项目日报-32组-幸运房东.xlsx
+++ b/工作文档/06 小组日报/项目日报-32组-幸运房东.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LuckyHost\工作文档\06 小组日报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0_大学\2021.9\软件开发基础能力训练\大作业\LuckyHost\工作文档\06 小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4602287F-51B3-443D-BD87-8CFD227E3454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4D7FFD-60A3-4FAD-9113-5F5996715D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021.12.13" sheetId="22" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="98">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -405,6 +405,10 @@
   <si>
     <t>100%，修复了按钮功能的漏洞</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>文稿撰写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -801,13 +805,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -816,7 +820,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,25 +844,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3153,7 +3157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855088F6-058B-4F8A-A77F-7F19733234DD}">
   <dimension ref="A1:IU500"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:G17"/>
     </sheetView>
   </sheetViews>
@@ -3174,25 +3178,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3212,10 +3216,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
@@ -3231,13 +3235,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="49">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="24" t="s">
         <v>38</v>
       </c>
@@ -3251,9 +3255,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="26" t="s">
         <v>40</v>
       </c>
@@ -3267,9 +3271,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="24" t="s">
         <v>41</v>
       </c>
@@ -3283,9 +3287,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="18"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -3293,9 +3297,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -3303,9 +3307,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -3313,9 +3317,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -3323,9 +3327,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -3333,9 +3337,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -3346,10 +3350,10 @@
       <c r="B14" s="23">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -3360,10 +3364,10 @@
       <c r="B15" s="23">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3386,15 +3390,15 @@
       <c r="B17" s="23">
         <v>1</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="43" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3402,11 +3406,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4974,12 +4978,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:D13"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="C14:D14"/>
@@ -4987,6 +4985,12 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:D13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
@@ -5025,25 +5029,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5063,10 +5067,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
@@ -5082,13 +5086,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="49">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -5102,9 +5106,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="24" t="s">
         <v>88</v>
       </c>
@@ -5118,9 +5122,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="24" t="s">
         <v>90</v>
       </c>
@@ -5134,9 +5138,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -5144,9 +5148,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -5154,9 +5158,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -5164,9 +5168,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -5174,9 +5178,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -5184,9 +5188,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -5197,10 +5201,10 @@
       <c r="B14" s="32">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -5211,10 +5215,10 @@
       <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -5237,11 +5241,11 @@
       <c r="B17" s="32">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5249,11 +5253,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -6871,25 +6875,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6909,10 +6913,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
@@ -6928,13 +6932,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="49">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -6948,9 +6952,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="24" t="s">
         <v>65</v>
       </c>
@@ -6964,9 +6968,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -6974,9 +6978,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -6984,9 +6988,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -6994,9 +6998,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -7004,9 +7008,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -7014,9 +7018,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -7024,9 +7028,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -7037,10 +7041,10 @@
       <c r="B14" s="34">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -7051,10 +7055,10 @@
       <c r="B15" s="34">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7077,11 +7081,11 @@
       <c r="B17" s="34">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7089,11 +7093,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -8711,25 +8715,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8749,10 +8753,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
@@ -8768,13 +8772,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="49">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="24" t="s">
         <v>79</v>
       </c>
@@ -8788,9 +8792,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="24" t="s">
         <v>81</v>
       </c>
@@ -8804,9 +8808,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -8814,9 +8818,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -8824,9 +8828,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -8834,9 +8838,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -8844,9 +8848,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -8854,9 +8858,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -8864,9 +8868,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -8877,10 +8881,10 @@
       <c r="B14" s="34">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -8891,10 +8895,10 @@
       <c r="B15" s="34">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -8917,11 +8921,11 @@
       <c r="B17" s="34">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8929,11 +8933,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -10551,25 +10555,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10589,10 +10593,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
@@ -10608,13 +10612,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="49">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="24" t="s">
         <v>83</v>
       </c>
@@ -10628,9 +10632,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="24" t="s">
         <v>93</v>
       </c>
@@ -10644,9 +10648,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="24" t="s">
         <v>86</v>
       </c>
@@ -10660,9 +10664,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="24" t="s">
         <v>85</v>
       </c>
@@ -10676,9 +10680,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="24" t="s">
         <v>94</v>
       </c>
@@ -10692,9 +10696,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -10702,9 +10706,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -10712,9 +10716,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -10722,9 +10726,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -10735,10 +10739,10 @@
       <c r="B14" s="36">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -10749,10 +10753,10 @@
       <c r="B15" s="36">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -10775,11 +10779,11 @@
       <c r="B17" s="36">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10787,11 +10791,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -12390,7 +12394,7 @@
   <dimension ref="A1:IU500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -12410,25 +12414,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12448,10 +12452,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
@@ -12467,13 +12471,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="49">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="24" t="s">
         <v>71</v>
       </c>
@@ -12487,9 +12491,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="24" t="s">
         <v>72</v>
       </c>
@@ -12503,19 +12507,25 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="24"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="25">
+        <v>1</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -12523,9 +12533,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -12533,9 +12543,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -12543,9 +12553,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -12553,9 +12563,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -12563,9 +12573,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -12576,10 +12586,10 @@
       <c r="B14" s="36">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -12590,10 +12600,10 @@
       <c r="B15" s="36">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -12616,11 +12626,11 @@
       <c r="B17" s="36">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12628,11 +12638,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -14221,7 +14231,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14242,7 +14253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IU501"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -14263,25 +14274,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14301,10 +14312,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -14318,13 +14329,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="49">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
@@ -14338,9 +14349,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -14354,9 +14365,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="24" t="s">
         <v>31</v>
       </c>
@@ -14370,9 +14381,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
@@ -14386,9 +14397,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="18" t="s">
         <v>17</v>
       </c>
@@ -14402,9 +14413,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="18" t="s">
         <v>18</v>
       </c>
@@ -14418,9 +14429,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="24"/>
       <c r="F11" s="12"/>
       <c r="G11" s="25"/>
@@ -14428,9 +14439,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="26"/>
       <c r="F12" s="12"/>
       <c r="G12" s="25"/>
@@ -14438,9 +14449,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="24"/>
       <c r="F13" s="12"/>
       <c r="G13" s="25"/>
@@ -14448,9 +14459,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
       <c r="G14" s="14"/>
@@ -14461,10 +14472,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -14475,10 +14486,10 @@
       <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -14501,15 +14512,15 @@
       <c r="B18" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="43" t="s">
+      <c r="D18" s="42"/>
+      <c r="E18" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14517,15 +14528,15 @@
       <c r="B19" s="15">
         <v>2</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="51" t="s">
+      <c r="D19" s="45"/>
+      <c r="E19" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -16093,6 +16104,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -16100,12 +16117,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -16156,14 +16167,14 @@
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16183,10 +16194,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -16200,13 +16211,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="49">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
@@ -16220,9 +16231,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -16236,9 +16247,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="24" t="s">
         <v>31</v>
       </c>
@@ -16252,9 +16263,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
@@ -16268,9 +16279,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="18" t="s">
         <v>18</v>
       </c>
@@ -16284,9 +16295,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -16294,9 +16305,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -16304,9 +16315,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -16314,9 +16325,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -16327,10 +16338,10 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="24" t="s">
         <v>20</v>
       </c>
@@ -16347,10 +16358,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -16373,15 +16384,15 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="43" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16389,11 +16400,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -17961,6 +17972,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -17968,12 +17985,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -18012,25 +18023,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18050,10 +18061,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -18069,13 +18080,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="49">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
@@ -18089,9 +18100,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="24" t="s">
         <v>31</v>
       </c>
@@ -18105,9 +18116,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="18" t="s">
         <v>17</v>
       </c>
@@ -18121,9 +18132,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="18" t="s">
         <v>18</v>
       </c>
@@ -18137,9 +18148,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -18147,9 +18158,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -18157,9 +18168,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -18167,9 +18178,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -18177,9 +18188,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -18190,10 +18201,10 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -18204,10 +18215,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -18230,15 +18241,15 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="43" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18246,11 +18257,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -19818,6 +19829,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -19825,12 +19842,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -19868,25 +19879,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19906,10 +19917,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
@@ -19925,13 +19936,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="49">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="24" t="s">
         <v>31</v>
       </c>
@@ -19945,9 +19956,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="24" t="s">
         <v>52</v>
       </c>
@@ -19961,9 +19972,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="24" t="s">
         <v>53</v>
       </c>
@@ -19977,9 +19988,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="24" t="s">
         <v>56</v>
       </c>
@@ -19993,9 +20004,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -20003,9 +20014,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -20013,9 +20024,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -20023,9 +20034,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -20033,9 +20044,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -20046,10 +20057,10 @@
       <c r="B14" s="21">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -20060,10 +20071,10 @@
       <c r="B15" s="21">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -20086,15 +20097,15 @@
       <c r="B17" s="21">
         <v>1</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="43" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20102,11 +20113,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -21725,25 +21736,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21763,10 +21774,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -21782,13 +21793,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="49">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -21802,9 +21813,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="24"/>
       <c r="F6" s="12"/>
       <c r="G6" s="25"/>
@@ -21812,9 +21823,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -21822,9 +21833,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -21832,9 +21843,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -21842,9 +21853,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -21852,9 +21863,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -21862,9 +21873,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -21872,9 +21883,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -21885,10 +21896,10 @@
       <c r="B14" s="28">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -21899,10 +21910,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -21925,15 +21936,15 @@
       <c r="B17" s="28">
         <v>1</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="43" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21941,11 +21952,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -23563,25 +23574,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23601,10 +23612,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -23620,13 +23631,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="49">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -23640,9 +23651,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="24" t="s">
         <v>75</v>
       </c>
@@ -23656,9 +23667,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -23666,9 +23677,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -23676,9 +23687,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -23686,9 +23697,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -23696,9 +23707,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -23706,9 +23717,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -23716,9 +23727,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -23729,10 +23740,10 @@
       <c r="B14" s="28">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -23743,10 +23754,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -23769,15 +23780,15 @@
       <c r="B17" s="28">
         <v>1</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="43" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23785,11 +23796,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -25408,25 +25419,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25446,10 +25457,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
@@ -25465,13 +25476,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="49">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -25485,9 +25496,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="24" t="s">
         <v>77</v>
       </c>
@@ -25501,9 +25512,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="24" t="s">
         <v>95</v>
       </c>
@@ -25517,9 +25528,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -25527,9 +25538,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -25537,9 +25548,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -25547,9 +25558,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -25557,9 +25568,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -25567,9 +25578,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -25580,10 +25591,10 @@
       <c r="B14" s="30">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -25594,10 +25605,10 @@
       <c r="B15" s="30">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -25620,11 +25631,11 @@
       <c r="B17" s="30">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -25632,11 +25643,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">

--- a/工作文档/06 小组日报/项目日报-32组-幸运房东.xlsx
+++ b/工作文档/06 小组日报/项目日报-32组-幸运房东.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0_大学\2021.9\软件开发基础能力训练\大作业\LuckyHost\工作文档\06 小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4D7FFD-60A3-4FAD-9113-5F5996715D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA652240-1EEA-42D7-8D3D-CE3D446C5AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="99">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -408,6 +408,10 @@
   </si>
   <si>
     <t>文稿撰写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,13 +809,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,19 +824,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,13 +836,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3178,25 +3182,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3216,10 +3220,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
@@ -3235,13 +3239,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="43">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>38</v>
       </c>
@@ -3255,9 +3259,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="26" t="s">
         <v>40</v>
       </c>
@@ -3271,9 +3275,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24" t="s">
         <v>41</v>
       </c>
@@ -3287,9 +3291,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="18"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -3297,9 +3301,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -3307,9 +3311,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -3317,9 +3321,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -3327,9 +3331,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -3337,9 +3341,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -3350,10 +3354,10 @@
       <c r="B14" s="23">
         <v>2</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -3364,10 +3368,10 @@
       <c r="B15" s="23">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3390,15 +3394,15 @@
       <c r="B17" s="23">
         <v>1</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3406,11 +3410,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4978,6 +4982,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C5:D13"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="C14:D14"/>
@@ -4985,12 +4995,6 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:D13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
@@ -5029,25 +5033,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5067,10 +5071,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
@@ -5086,13 +5090,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="43">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -5106,9 +5110,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>88</v>
       </c>
@@ -5122,9 +5126,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24" t="s">
         <v>90</v>
       </c>
@@ -5138,9 +5142,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -5148,9 +5152,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -5158,9 +5162,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -5168,9 +5172,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -5178,9 +5182,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -5188,9 +5192,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -5201,10 +5205,10 @@
       <c r="B14" s="32">
         <v>2</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -5215,10 +5219,10 @@
       <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -5241,11 +5245,11 @@
       <c r="B17" s="32">
         <v>1</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5253,11 +5257,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -6875,25 +6879,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6913,10 +6917,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
@@ -6932,13 +6936,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="43">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -6952,9 +6956,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>65</v>
       </c>
@@ -6968,9 +6972,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -6978,9 +6982,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -6988,9 +6992,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -6998,9 +7002,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -7008,9 +7012,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -7018,9 +7022,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -7028,9 +7032,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -7041,10 +7045,10 @@
       <c r="B14" s="34">
         <v>2</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -7055,10 +7059,10 @@
       <c r="B15" s="34">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7081,11 +7085,11 @@
       <c r="B17" s="34">
         <v>1</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7093,11 +7097,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -8715,25 +8719,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8753,10 +8757,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
@@ -8772,13 +8776,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="43">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>79</v>
       </c>
@@ -8792,9 +8796,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>81</v>
       </c>
@@ -8808,9 +8812,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -8818,9 +8822,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -8828,9 +8832,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -8838,9 +8842,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -8848,9 +8852,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -8858,9 +8862,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -8868,9 +8872,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -8881,10 +8885,10 @@
       <c r="B14" s="34">
         <v>2</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -8895,10 +8899,10 @@
       <c r="B15" s="34">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -8921,11 +8925,11 @@
       <c r="B17" s="34">
         <v>1</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8933,11 +8937,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -10555,25 +10559,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10593,10 +10597,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
@@ -10612,13 +10616,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="43">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>83</v>
       </c>
@@ -10632,9 +10636,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>93</v>
       </c>
@@ -10648,9 +10652,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24" t="s">
         <v>86</v>
       </c>
@@ -10664,9 +10668,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24" t="s">
         <v>85</v>
       </c>
@@ -10680,9 +10684,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="24" t="s">
         <v>94</v>
       </c>
@@ -10696,9 +10700,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -10706,9 +10710,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -10716,9 +10720,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -10726,9 +10730,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -10739,10 +10743,10 @@
       <c r="B14" s="36">
         <v>2</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -10753,10 +10757,10 @@
       <c r="B15" s="36">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -10779,11 +10783,11 @@
       <c r="B17" s="36">
         <v>1</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10791,11 +10795,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -12394,7 +12398,7 @@
   <dimension ref="A1:IU500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -12414,25 +12418,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12452,10 +12456,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
@@ -12471,13 +12475,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="43">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>71</v>
       </c>
@@ -12491,9 +12495,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>72</v>
       </c>
@@ -12507,11 +12511,11 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>16</v>
@@ -12523,19 +12527,25 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="25"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="25">
+        <v>1</v>
+      </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -12543,9 +12553,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -12553,9 +12563,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -12563,9 +12573,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -12573,9 +12583,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -12586,10 +12596,10 @@
       <c r="B14" s="36">
         <v>2</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -12600,10 +12610,10 @@
       <c r="B15" s="36">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -12626,11 +12636,11 @@
       <c r="B17" s="36">
         <v>1</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12638,11 +12648,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -14274,25 +14284,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14312,10 +14322,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -14329,13 +14339,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="43">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
@@ -14349,9 +14359,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -14365,9 +14375,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24" t="s">
         <v>31</v>
       </c>
@@ -14381,9 +14391,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
@@ -14397,9 +14407,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="18" t="s">
         <v>17</v>
       </c>
@@ -14413,9 +14423,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="18" t="s">
         <v>18</v>
       </c>
@@ -14429,9 +14439,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="24"/>
       <c r="F11" s="12"/>
       <c r="G11" s="25"/>
@@ -14439,9 +14449,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="26"/>
       <c r="F12" s="12"/>
       <c r="G12" s="25"/>
@@ -14449,9 +14459,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="24"/>
       <c r="F13" s="12"/>
       <c r="G13" s="25"/>
@@ -14459,9 +14469,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
       <c r="G14" s="14"/>
@@ -14472,10 +14482,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -14486,10 +14496,10 @@
       <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -14512,15 +14522,15 @@
       <c r="B18" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="47" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14528,15 +14538,15 @@
       <c r="B19" s="15">
         <v>2</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="52" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -16104,12 +16114,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -16117,6 +16121,12 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -16167,14 +16177,14 @@
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16194,10 +16204,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -16211,13 +16221,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="43">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
@@ -16231,9 +16241,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -16247,9 +16257,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24" t="s">
         <v>31</v>
       </c>
@@ -16263,9 +16273,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
@@ -16279,9 +16289,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="18" t="s">
         <v>18</v>
       </c>
@@ -16295,9 +16305,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -16305,9 +16315,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -16315,9 +16325,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -16325,9 +16335,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -16338,10 +16348,10 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="24" t="s">
         <v>20</v>
       </c>
@@ -16358,10 +16368,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -16384,15 +16394,15 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16400,11 +16410,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -17972,12 +17982,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -17985,6 +17989,12 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -18023,25 +18033,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18061,10 +18071,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -18080,13 +18090,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="43">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
@@ -18100,9 +18110,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>31</v>
       </c>
@@ -18116,9 +18126,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="18" t="s">
         <v>17</v>
       </c>
@@ -18132,9 +18142,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="18" t="s">
         <v>18</v>
       </c>
@@ -18148,9 +18158,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -18158,9 +18168,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -18168,9 +18178,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -18178,9 +18188,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -18188,9 +18198,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -18201,10 +18211,10 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -18215,10 +18225,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -18241,15 +18251,15 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18257,11 +18267,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -19829,12 +19839,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -19842,6 +19846,12 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="C5:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -19879,25 +19889,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19917,10 +19927,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
@@ -19936,13 +19946,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="43">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>31</v>
       </c>
@@ -19956,9 +19966,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>52</v>
       </c>
@@ -19972,9 +19982,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24" t="s">
         <v>53</v>
       </c>
@@ -19988,9 +19998,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24" t="s">
         <v>56</v>
       </c>
@@ -20004,9 +20014,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -20014,9 +20024,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -20024,9 +20034,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -20034,9 +20044,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -20044,9 +20054,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -20057,10 +20067,10 @@
       <c r="B14" s="21">
         <v>2</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -20071,10 +20081,10 @@
       <c r="B15" s="21">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -20097,15 +20107,15 @@
       <c r="B17" s="21">
         <v>1</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20113,11 +20123,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -21736,25 +21746,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21774,10 +21784,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -21793,13 +21803,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="43">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -21813,9 +21823,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24"/>
       <c r="F6" s="12"/>
       <c r="G6" s="25"/>
@@ -21823,9 +21833,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -21833,9 +21843,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -21843,9 +21853,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -21853,9 +21863,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -21863,9 +21873,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -21873,9 +21883,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -21883,9 +21893,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -21896,10 +21906,10 @@
       <c r="B14" s="28">
         <v>2</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -21910,10 +21920,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -21936,15 +21946,15 @@
       <c r="B17" s="28">
         <v>1</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21952,11 +21962,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -23574,25 +23584,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23612,10 +23622,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -23631,13 +23641,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="43">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -23651,9 +23661,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>75</v>
       </c>
@@ -23667,9 +23677,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
       <c r="G7" s="24"/>
@@ -23677,9 +23687,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -23687,9 +23697,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -23697,9 +23707,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -23707,9 +23717,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -23717,9 +23727,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -23727,9 +23737,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -23740,10 +23750,10 @@
       <c r="B14" s="28">
         <v>2</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -23754,10 +23764,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -23780,15 +23790,15 @@
       <c r="B17" s="28">
         <v>1</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23796,11 +23806,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -25419,25 +25429,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25457,10 +25467,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
@@ -25476,13 +25486,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="43">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
@@ -25496,9 +25506,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="24" t="s">
         <v>77</v>
       </c>
@@ -25512,9 +25522,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24" t="s">
         <v>95</v>
       </c>
@@ -25528,9 +25538,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -25538,9 +25548,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="14"/>
@@ -25548,9 +25558,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="14"/>
@@ -25558,9 +25568,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="14"/>
@@ -25568,9 +25578,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
@@ -25578,9 +25588,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -25591,10 +25601,10 @@
       <c r="B14" s="30">
         <v>2</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -25605,10 +25615,10 @@
       <c r="B15" s="30">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -25631,11 +25641,11 @@
       <c r="B17" s="30">
         <v>1</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -25643,11 +25653,11 @@
       <c r="B18" s="15">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
